--- a/santacode/people.xlsx
+++ b/santacode/people.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssantamaria/Documents/Università/secret-santa/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/Documents/Projects/SecretSanta/secret-santa/santacode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80612A-E2ED-3C4E-B18A-04988FAE6AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769E753-7497-5643-836A-5A44680D9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="660" windowWidth="28040" windowHeight="16120" xr2:uid="{8DF36305-D52F-DF48-A47F-86111CA5BD71}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>email</t>
   </si>
@@ -63,25 +54,130 @@
     <t>telefono</t>
   </si>
   <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Rossi</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>via Roma</t>
-  </si>
-  <si>
-    <t>p.zza Cavour</t>
-  </si>
-  <si>
-    <t>..gmail.com</t>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Pedrini</t>
+  </si>
+  <si>
+    <t>Giuliana</t>
+  </si>
+  <si>
+    <t>Lojacono</t>
+  </si>
+  <si>
+    <t>mpedrini@cgnal.com</t>
+  </si>
+  <si>
+    <t>Mattia Pedrini</t>
+  </si>
+  <si>
+    <t>giuliana@cgnal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddhant </t>
+  </si>
+  <si>
+    <t>Tandon</t>
+  </si>
+  <si>
+    <t>Gioia</t>
+  </si>
+  <si>
+    <t>Boschi</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Prestipino</t>
+  </si>
+  <si>
+    <t>Arianna</t>
+  </si>
+  <si>
+    <t>Falcioni</t>
+  </si>
+  <si>
+    <t>standon@cgnal.com</t>
+  </si>
+  <si>
+    <t>gboschi@cgnal.com</t>
+  </si>
+  <si>
+    <t>gprestipino@cgnal.com</t>
+  </si>
+  <si>
+    <t>afalcioni@cgnal.com</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Scartabelli</t>
+  </si>
+  <si>
+    <t>ascartabelli@cgnal.com</t>
+  </si>
+  <si>
+    <t>Nicola Romeo</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>nromeoarena@cgnal.com</t>
+  </si>
+  <si>
+    <t>Viale Spica 10, 47921 Rimini</t>
+  </si>
+  <si>
+    <t>Via U. Boccioni, 17 88060 Satriano (CZ)</t>
+  </si>
+  <si>
+    <t>Giovanni Prestipino</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Galtarossa</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Ariazzi</t>
+  </si>
+  <si>
+    <t>lgaltarossa@cgnal.com</t>
+  </si>
+  <si>
+    <t>mariazzi@cgnal.com</t>
+  </si>
+  <si>
+    <t>Arianna Falcioni</t>
+  </si>
+  <si>
+    <t>Andrea Scartabelli</t>
+  </si>
+  <si>
+    <t>Nicola Romeo Arena</t>
+  </si>
+  <si>
+    <t>Mattia Pedrini, Giuliana Lojacono</t>
+  </si>
+  <si>
+    <t>Gabriele</t>
+  </si>
+  <si>
+    <t>Arici</t>
+  </si>
+  <si>
+    <t>garici@cgnal.com</t>
   </si>
 </sst>
 </file>
@@ -144,8 +240,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,17 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28D568-B05B-7B4F-BF82-EA1CCEA61C64}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -501,61 +600,254 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>123456789</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>987654321</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E97956EA-7FDA-D040-8C79-433E1E181339}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{8CD1E5AF-D4A3-2041-8F14-145195B5F681}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{25B7D97A-C924-7547-BFD9-6C9C095680EA}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{727143C0-61D3-6A48-9D5E-24B5AE1DDEDC}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{C9722C49-E34A-1645-BA02-5A90751DAE2D}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{3C54A410-E5E9-C54D-8E1E-527081810437}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{E26DE067-EFDE-5448-BDF9-319F37D15B0F}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{E9C5A176-070D-D443-BFE2-3BABC0077417}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{897411B7-0812-D34D-8FEC-BF19131C5E30}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{B36D3D6E-8733-B146-92E2-1B9852B5D0A0}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{DEDCB170-0CEE-EF40-88F6-320B8F968A0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>